--- a/poc/tsr_error_measures.xlsx
+++ b/poc/tsr_error_measures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\time_series_forecasting\poc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEA523A-9DA0-434F-AAB9-138EAAE25144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2605C3-DA65-40FB-A4C3-C14ECE9A4426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63481848-6833-4C8D-B8AB-73FFEFDA32C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Actual</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>RMSE</t>
+  </si>
+  <si>
+    <t>Root Mean Squared Error</t>
   </si>
 </sst>
 </file>
@@ -146,13 +149,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -700,7 +702,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -886,7 +888,7 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
@@ -934,7 +936,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
@@ -979,7 +981,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="28.8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
@@ -990,22 +992,24 @@
         <f>SQRT(F6)</f>
         <v>1.5811388300841898</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="R7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
